--- a/utils/model2json/rbc_information.xlsx
+++ b/utils/model2json/rbc_information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="356" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="356" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -157,7 +157,7 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>\\alpha</t>
+    <t>\alpha</t>
   </si>
   <si>
     <t>capital's share of output</t>
@@ -172,7 +172,7 @@
     <t>beta</t>
   </si>
   <si>
-    <t>\\beta</t>
+    <t>\beta</t>
   </si>
   <si>
     <t>household discount factor</t>
@@ -191,7 +191,7 @@
     <t>delta</t>
   </si>
   <si>
-    <t>\\delta</t>
+    <t>\delta</t>
   </si>
   <si>
     <t>depreciation rate of capital</t>
@@ -206,7 +206,7 @@
     <t>rho</t>
   </si>
   <si>
-    <t>\\rho</t>
+    <t>\rho</t>
   </si>
   <si>
     <t>persistence of TFP shocks</t>
@@ -221,7 +221,7 @@
     <t>rho_g</t>
   </si>
   <si>
-    <t>\\rho_{g}</t>
+    <t>\rho_{g}</t>
   </si>
   <si>
     <t>persistence of government spending shocks</t>
@@ -236,7 +236,7 @@
     <t>rho_z</t>
   </si>
   <si>
-    <t>\\rho_{z}</t>
+    <t>\rho_{z}</t>
   </si>
   <si>
     <t>persistence of public investment shocks</t>
@@ -248,7 +248,7 @@
     <t>xi</t>
   </si>
   <si>
-    <t>\\xi</t>
+    <t>\xi</t>
   </si>
   <si>
     <t>return on public investment</t>
@@ -263,7 +263,7 @@
     <t>itermax</t>
   </si>
   <si>
-    <t>\\text{itermax}</t>
+    <t>\text{itermax}</t>
   </si>
   <si>
     <t>Determines the maximum number of iterations used in the non-linear solver. The default value of maxit is 10. The maxit option is shared with the steady command. So a change in maxit in asimul command will also be considered in the following steady commands.</t>
@@ -278,7 +278,7 @@
     <t>g_bar</t>
   </si>
   <si>
-    <t>\\overline{g}</t>
+    <t>\overline{g}</t>
   </si>
   <si>
     <t>initial value of government spending as a share of GDP</t>
@@ -290,7 +290,7 @@
     <t>Iz_bar</t>
   </si>
   <si>
-    <t>\\overline{I_z}</t>
+    <t>\overline{I_z}</t>
   </si>
   <si>
     <t>initial value of public investment as a share of GDP</t>
@@ -787,8 +787,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1000,8 +1000,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
